--- a/document/excel_upload_자료/TBL_EXP_FIN_ANAL_RATE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_FIN_ANAL_RATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB66E482-BC7C-4D72-8E72-479AA9AAA457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C5270E-8D42-4696-8C2A-979C5C2E1417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,35 +77,138 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>TBL_EXP_FIN_ANAL_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지표명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정성 지표 연번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무비율 상세명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당업체 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준비율 상위지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준비율 하위지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25FC</t>
+  </si>
+  <si>
+    <t>안정성지표</t>
+  </si>
+  <si>
+    <t>부채비율</t>
+  </si>
+  <si>
+    <t>차입금의존도</t>
+  </si>
+  <si>
+    <t>유동비율</t>
+  </si>
+  <si>
+    <t>이자보상비율</t>
+  </si>
+  <si>
+    <t>수익성지표</t>
+  </si>
+  <si>
+    <t>매출순이익률</t>
+  </si>
+  <si>
+    <t>매출영업이익률</t>
+  </si>
+  <si>
+    <t>총자산순이익률(ROA)</t>
+  </si>
+  <si>
+    <t>자기자본순이익률(ROE)</t>
+  </si>
+  <si>
+    <t>성장성지표</t>
+  </si>
+  <si>
+    <t>총자산증가율</t>
+  </si>
+  <si>
+    <t>자기자본증가율</t>
+  </si>
+  <si>
+    <t>유동자산증가율</t>
+  </si>
+  <si>
+    <t>매출액증가율</t>
+  </si>
+  <si>
+    <t>활동성지표</t>
+  </si>
+  <si>
+    <t>총자산회전율</t>
+  </si>
+  <si>
+    <t>재고자산회전율</t>
+  </si>
+  <si>
+    <t>매입채무회전율</t>
+  </si>
+  <si>
+    <t>매출채권회전율</t>
+  </si>
+  <si>
     <t>BUYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDICATORS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
-  </si>
-  <si>
-    <t>TBL_EXP_FIN_ANAL_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INDICATORS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ITEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>COMPANY_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SECTORS_AVG_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EVALUATION_MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EVALUATION_MIN</t>
-  </si>
-  <si>
-    <t>1/2/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,17 +420,17 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A4" sqref="A4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -682,13 +785,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="24">
@@ -709,13 +812,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -726,55 +829,471 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>-425.7</v>
+      </c>
+      <c r="F6">
+        <v>127.4</v>
+      </c>
+      <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>-247.8</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>60.4</v>
+      </c>
+      <c r="F8">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>11.5</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>10.8</v>
+      </c>
+      <c r="F11">
+        <v>6.8</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>23.2</v>
+      </c>
+      <c r="F12">
+        <v>5.4</v>
+      </c>
+      <c r="G12">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>-43.2</v>
+      </c>
+      <c r="F13">
+        <v>12.1</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>-7.1</v>
+      </c>
+      <c r="F14">
+        <v>27.3</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>17</v>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>-62</v>
+      </c>
+      <c r="F15">
+        <v>23.4</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>87.5</v>
+      </c>
+      <c r="F16">
+        <v>21.9</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.7</v>
+      </c>
+      <c r="G18">
+        <v>1.5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>63.5</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>5.8</v>
+      </c>
+      <c r="F20">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>9.4</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/document/excel_upload_자료/TBL_EXP_FIN_ANAL_RATE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_FIN_ANAL_RATE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C5270E-8D42-4696-8C2A-979C5C2E1417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52657387-3622-4737-9079-E261FB5249FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView minimized="1" xWindow="-21780" yWindow="1464" windowWidth="21600" windowHeight="11388" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,16 +768,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="29.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>

--- a/document/excel_upload_자료/TBL_EXP_FIN_ANAL_RATE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_FIN_ANAL_RATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52657387-3622-4737-9079-E261FB5249FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BD677C-D6A1-4195-8DB1-A2D2F13C11A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-21780" yWindow="1464" windowWidth="21600" windowHeight="11388" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25FC</t>
-  </si>
-  <si>
     <t>안정성지표</t>
   </si>
   <si>
@@ -209,6 +206,10 @@
   </si>
   <si>
     <t>EVALUATION_MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star1009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,7 +770,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H21"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -830,28 +831,28 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -882,16 +883,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>-425.7</v>
@@ -908,16 +909,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>-247.8</v>
@@ -934,16 +935,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>60.4</v>
@@ -960,16 +961,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2.2000000000000002</v>
@@ -986,16 +987,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>11.5</v>
@@ -1012,16 +1013,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>10.8</v>
@@ -1038,16 +1039,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>23.2</v>
@@ -1064,16 +1065,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>-43.2</v>
@@ -1090,16 +1091,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>-7.1</v>
@@ -1116,16 +1117,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>-62</v>
@@ -1142,16 +1143,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>87.5</v>
@@ -1168,16 +1169,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>2.2000000000000002</v>
@@ -1194,16 +1195,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1220,16 +1221,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>63.5</v>
@@ -1246,16 +1247,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <v>5.8</v>
@@ -1272,16 +1273,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>7</v>
